--- a/src/main/resources/files/products.xlsx
+++ b/src/main/resources/files/products.xlsx
@@ -13,18 +13,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>description</t>
+    <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t>quantité</t>
+    <t xml:space="preserve"> Quantité</t>
   </si>
   <si>
-    <t xml:space="preserve">Prix unitaire</t>
+    <t xml:space="preserve">Prix unitaire (€) </t>
   </si>
   <si>
-    <t xml:space="preserve">TVA (%)</t>
+    <t xml:space="preserve">TVA (%) </t>
   </si>
   <si>
     <t xml:space="preserve">Coude et accessoires</t>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">Autres produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -86,6 +89,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$A$1:$D$9">
+  <autoFilter ref="$A$1:$D$9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Description "/>
+    <tableColumn id="2" name=" Quantité"/>
+    <tableColumn id="3" name="Prix unitaire (€) "/>
+    <tableColumn id="4" name="TVA (%) "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,7 +605,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="15.28125"/>
     <col customWidth="1" min="2" max="2" width="12.7109375"/>
-    <col customWidth="1" min="3" max="3" width="12.8515625"/>
+    <col customWidth="1" min="3" max="3" width="16.28125"/>
     <col customWidth="1" min="4" max="4" width="13.7109375"/>
   </cols>
   <sheetData>
@@ -705,10 +721,18 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>